--- a/output/table_estimates_education_Control.xlsx
+++ b/output/table_estimates_education_Control.xlsx
@@ -465,10 +465,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.05112476355021432</v>
+        <v>0.08730088361307239</v>
       </c>
       <c r="C2">
-        <v>0.03532386615047606</v>
+        <v>0.03545579265886662</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -479,10 +479,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>-0.7488800928152251</v>
+        <v>-0.7635361482906597</v>
       </c>
       <c r="C3">
-        <v>0.03205205996784884</v>
+        <v>0.03198719336895905</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -493,10 +493,10 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.3319445510836476</v>
+        <v>-0.5044934468030168</v>
       </c>
       <c r="C4">
-        <v>0.02539806239729094</v>
+        <v>0.02494458672874181</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
@@ -507,10 +507,10 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>-0.04375048204032914</v>
+        <v>-0.1351809347501902</v>
       </c>
       <c r="C5">
-        <v>0.01807227267980807</v>
+        <v>0.01735684406126729</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
@@ -521,10 +521,10 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>0.1168136603929997</v>
+        <v>0.01134058641831855</v>
       </c>
       <c r="C6">
-        <v>0.01791791098118822</v>
+        <v>0.01824031932005838</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
@@ -535,10 +535,10 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0.2121313462061255</v>
+        <v>0.2431810343310051</v>
       </c>
       <c r="C7">
-        <v>0.02446884125491261</v>
+        <v>0.02516517557327855</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
@@ -549,10 +549,10 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>0.002894466096757417</v>
+        <v>-0.07354688644963286</v>
       </c>
       <c r="C8">
-        <v>0.03488696752850362</v>
+        <v>0.03732083106224206</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
@@ -563,10 +563,10 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.2159369840559192</v>
+        <v>0.1409863053474616</v>
       </c>
       <c r="C9">
-        <v>0.03174228016449011</v>
+        <v>0.03288507579988049</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
@@ -577,10 +577,10 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>-0.1665472651792054</v>
+        <v>-0.1672868925605599</v>
       </c>
       <c r="C10">
-        <v>0.01722073356479822</v>
+        <v>0.01672541534050396</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
@@ -591,10 +591,10 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.01300245035569162</v>
+        <v>-0.02908461539502429</v>
       </c>
       <c r="C11">
-        <v>0.003201347125311422</v>
+        <v>0.00346168858450986</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
@@ -605,10 +605,10 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.05329377745299613</v>
+        <v>-0.05422617818302393</v>
       </c>
       <c r="C12">
-        <v>0.03795027221647028</v>
+        <v>0.03928562000631181</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
@@ -619,10 +619,10 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>2.8724174924819</v>
+        <v>2.868193984688237</v>
       </c>
       <c r="C13">
-        <v>0.0437247473032658</v>
+        <v>0.04453360992387966</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
@@ -633,10 +633,10 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>0.9226639375636415</v>
+        <v>1.029017880295319</v>
       </c>
       <c r="C14">
-        <v>0.02576656757467806</v>
+        <v>0.02612858785074144</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
@@ -647,10 +647,10 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.5972865929792353</v>
+        <v>-0.5849078299836492</v>
       </c>
       <c r="C15">
-        <v>0.0112015978658693</v>
+        <v>0.01132761450453797</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
@@ -661,10 +661,10 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>0.1296604781554418</v>
+        <v>0.1166217433892591</v>
       </c>
       <c r="C16">
-        <v>0.1781114512438889</v>
+        <v>0.1755406158558211</v>
       </c>
       <c r="D16" t="b">
         <v>1</v>
@@ -675,10 +675,10 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>-3.613938208139347</v>
+        <v>-3.558783415781968</v>
       </c>
       <c r="C17">
-        <v>0.02977768223102577</v>
+        <v>0.03042237076228351</v>
       </c>
       <c r="D17" t="b">
         <v>1</v>
@@ -689,10 +689,10 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>-1.457717720931561</v>
+        <v>-1.38991298077527</v>
       </c>
       <c r="C18">
-        <v>0.03868723276113439</v>
+        <v>0.03834452310693134</v>
       </c>
       <c r="D18" t="b">
         <v>1</v>
@@ -703,10 +703,10 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>2.085053166667554</v>
+        <v>1.891208689581978</v>
       </c>
       <c r="C19">
-        <v>0.1936694316882638</v>
+        <v>0.193035421940545</v>
       </c>
       <c r="D19" t="b">
         <v>1</v>
@@ -728,10 +728,10 @@
         <v>22</v>
       </c>
       <c r="B21">
-        <v>0.531241974658052</v>
+        <v>0.4438680519069554</v>
       </c>
       <c r="C21">
-        <v>0.1127045665505601</v>
+        <v>0.1098753340883778</v>
       </c>
       <c r="D21" t="b">
         <v>1</v>
@@ -742,10 +742,10 @@
         <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.945267529100568</v>
+        <v>-0.8575230927350134</v>
       </c>
       <c r="C22">
-        <v>0.1179543522458647</v>
+        <v>0.1123520172362581</v>
       </c>
       <c r="D22" t="b">
         <v>1</v>
